--- a/Group13 Iteration Spreadsheet.xlsx
+++ b/Group13 Iteration Spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brennan\Documents\Github\cs451Group13\semester-project-group-13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62CE59D-A7AB-443D-8591-0C803862A843}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F942EF0-90B6-42BC-8C46-3FE5264BE95F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1338,7 +1338,7 @@
   <dimension ref="A1:AF982"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1560,8 +1560,8 @@
       </c>
       <c r="H5" s="28"/>
       <c r="I5" s="29">
-        <f>SUM(H6:H10)</f>
-        <v>20</v>
+        <f>SUM(H6:H7)</f>
+        <v>12</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -1571,7 +1571,7 @@
       <c r="O5" s="30"/>
       <c r="P5" s="30"/>
       <c r="Q5" s="31">
-        <f t="shared" ref="Q5:Q12" si="0">SUM(M5:P5)</f>
+        <f t="shared" ref="Q5:Q10" si="0">SUM(M5:P5)</f>
         <v>0</v>
       </c>
       <c r="R5" s="4"/>
@@ -1874,8 +1874,8 @@
       </c>
       <c r="H11" s="59"/>
       <c r="I11" s="29">
-        <f ca="1">SUM(H12:H22)</f>
-        <v>5</v>
+        <f>SUM(H12:H15)</f>
+        <v>4.5</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -1933,7 +1933,7 @@
         <v>1.5</v>
       </c>
       <c r="Q12" s="71">
-        <f>SUM(M12:P12)</f>
+        <f t="shared" ref="Q12:Q18" si="1">SUM(M12:P12)</f>
         <v>1.5</v>
       </c>
       <c r="R12" s="4"/>
@@ -1982,7 +1982,7 @@
         <v>0.5</v>
       </c>
       <c r="Q13" s="71">
-        <f>SUM(M13:P13)</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="R13" s="5"/>
@@ -2031,7 +2031,7 @@
       <c r="O14" s="70"/>
       <c r="P14" s="70"/>
       <c r="Q14" s="71">
-        <f>SUM(M14:P14)</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="R14" s="5"/>
@@ -2080,7 +2080,7 @@
       </c>
       <c r="P15" s="70"/>
       <c r="Q15" s="71">
-        <f>SUM(M15:P15)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R15" s="4"/>
@@ -2119,7 +2119,7 @@
       <c r="O16" s="80"/>
       <c r="P16" s="80"/>
       <c r="Q16" s="81">
-        <f>SUM(M16:P16)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R16" s="4"/>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="P17" s="70"/>
       <c r="Q17" s="71">
-        <f>SUM(M17:P17)</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="R17" s="4"/>
@@ -2231,7 +2231,7 @@
         <v>7</v>
       </c>
       <c r="Q18" s="112">
-        <f ca="1">SUM(M18:P18)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>25</v>
       </c>
       <c r="R18" s="4"/>
